--- a/英剧.xlsx
+++ b/英剧.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\5.5.5.5\data\src\github\dbdb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270"/>
   </bookViews>
   <sheets>
-    <sheet name="dbdb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dbdb" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>title</t>
   </si>
@@ -46,35 +51,99 @@
     <t>ratings_count</t>
   </si>
   <si>
-    <t>是，大臣 1984圣诞特辑</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/26725031/</t>
-  </si>
-  <si>
-    <t>https://img3.doubanio.com/view/movie_poster_cover/lpst/public/p2397258764.jpg</t>
+    <t>collect_count</t>
+  </si>
+  <si>
+    <t>comments_count</t>
+  </si>
+  <si>
+    <t>do_count</t>
+  </si>
+  <si>
+    <t>wish_count</t>
+  </si>
+  <si>
+    <t>reviews_count</t>
+  </si>
+  <si>
+    <t>episodes_count</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>genres</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>aka</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>casts</t>
+  </si>
+  <si>
+    <t>current_season</t>
+  </si>
+  <si>
+    <t>directors</t>
+  </si>
+  <si>
+    <t>douban_site</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>mobile_url</t>
+  </si>
+  <si>
+    <t>original_title</t>
+  </si>
+  <si>
+    <t>schedule_url</t>
+  </si>
+  <si>
+    <t>seasons_count</t>
+  </si>
+  <si>
+    <t>share_url</t>
+  </si>
+  <si>
+    <t>subtype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,26 +158,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,20 +482,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,66 +499,106 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1071</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26725031</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1751</v>
-      </c>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>